--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="83">
   <si>
     <t>Asset</t>
   </si>
@@ -59,36 +59,75 @@
     <t xml:space="preserve">bonds </t>
   </si>
   <si>
+    <t>MUB</t>
+  </si>
+  <si>
+    <t>iShares National Muni Bond ETF</t>
+  </si>
+  <si>
     <t>HYG</t>
   </si>
   <si>
     <t>iShares iBoxx $ High Yield Corporate Bond ETF</t>
   </si>
   <si>
+    <t>GLD</t>
+  </si>
+  <si>
+    <t>SPDR Gold Trust</t>
+  </si>
+  <si>
+    <t>commodities</t>
+  </si>
+  <si>
     <t>BND</t>
   </si>
   <si>
     <t>Vanguard Total Bond Market Index Fund ETF</t>
   </si>
   <si>
+    <t>USO</t>
+  </si>
+  <si>
+    <t>United States Oil ETF</t>
+  </si>
+  <si>
     <t>GOVT</t>
   </si>
   <si>
     <t>iShares US Treasury Bond ETF</t>
   </si>
   <si>
+    <t>DBA</t>
+  </si>
+  <si>
+    <t>Invesco DB Agriculture Fund</t>
+  </si>
+  <si>
     <t>SHV</t>
   </si>
   <si>
     <t>iShares Short Treasury Bond ETF</t>
   </si>
   <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>iShares Silver Trust</t>
+  </si>
+  <si>
     <t>TIP</t>
   </si>
   <si>
     <t>iShares TIPS Bond ETF</t>
   </si>
   <si>
+    <t>XME</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P Metals &amp; Mining ETF</t>
+  </si>
+  <si>
     <t>ITE</t>
   </si>
   <si>
@@ -96,45 +135,6 @@
   </si>
   <si>
     <t>defense</t>
-  </si>
-  <si>
-    <t>MUB</t>
-  </si>
-  <si>
-    <t>iShares National Muni Bond ETF</t>
-  </si>
-  <si>
-    <t>GLD</t>
-  </si>
-  <si>
-    <t>SPDR Gold Trust</t>
-  </si>
-  <si>
-    <t>commodities</t>
-  </si>
-  <si>
-    <t>USO</t>
-  </si>
-  <si>
-    <t>United States Oil ETF</t>
-  </si>
-  <si>
-    <t>DBA</t>
-  </si>
-  <si>
-    <t>Invesco DB Agriculture Fund</t>
-  </si>
-  <si>
-    <t>SLV</t>
-  </si>
-  <si>
-    <t>iShares Silver Trust</t>
-  </si>
-  <si>
-    <t>XME</t>
-  </si>
-  <si>
-    <t>SPDR S&amp;P Metals &amp; Mining ETF</t>
   </si>
   <si>
     <t>DBB</t>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Smartshares NZ Top 50</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -271,13 +274,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -331,27 +340,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -360,11 +375,26 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,383 +704,383 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="57.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
+      <c r="A8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>13</v>
+      <c r="A9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>31</v>
+      <c r="A10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>31</v>
+      <c r="A11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>31</v>
+      <c r="A12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>31</v>
+      <c r="A13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>31</v>
+      <c r="A14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>31</v>
+      <c r="A15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>31</v>
+      <c r="A16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>31</v>
+      <c r="A17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>31</v>
+      <c r="A18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>50</v>
+      <c r="A19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>50</v>
+      <c r="A20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>55</v>
+      <c r="A21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>55</v>
+      <c r="A22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>55</v>
+      <c r="A23" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>55</v>
+      <c r="A24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>55</v>
+      <c r="A25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>55</v>
+      <c r="A26" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>55</v>
+      <c r="A27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>55</v>
+      <c r="A28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>55</v>
+      <c r="A29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
-      <c r="A30" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>55</v>
+      <c r="A30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="37.5">
-      <c r="A31" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>55</v>
+      <c r="A31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>31</v>
+      <c r="A32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>31</v>
+      <c r="A33" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>55</v>
+      <c r="A34" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1069,17 +1099,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1128,9 +1158,15 @@
         <v>13</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1138,18 +1174,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1157,18 +1199,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1176,18 +1224,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1195,18 +1249,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1214,18 +1274,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1233,18 +1299,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1252,18 +1324,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1271,18 +1349,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1290,18 +1374,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1309,18 +1399,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1328,18 +1424,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1347,18 +1449,24 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1372,12 +1480,18 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1391,12 +1505,18 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1410,12 +1530,18 @@
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1429,12 +1555,18 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1451,9 +1583,15 @@
         <v>50</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1470,9 +1608,15 @@
         <v>50</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1489,9 +1633,15 @@
         <v>55</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
+      <c r="E21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1508,15 +1658,21 @@
         <v>55</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
+      <c r="E22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="56.25">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -1527,15 +1683,21 @@
         <v>55</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
+      <c r="E23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="37.5">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -1546,9 +1708,15 @@
         <v>55</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
+      <c r="E24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1565,9 +1733,15 @@
         <v>55</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1584,9 +1758,15 @@
         <v>55</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
+      <c r="E26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1603,9 +1783,15 @@
         <v>55</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1653,7 +1839,7 @@
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1672,7 +1858,7 @@
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1695,7 +1881,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1714,7 +1900,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1745,10 +1931,10 @@
       <c r="K34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="2"/>
@@ -1762,10 +1948,10 @@
       <c r="K35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="2"/>
@@ -1779,10 +1965,10 @@
       <c r="K36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="2"/>
@@ -1796,10 +1982,10 @@
       <c r="K37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="2"/>
@@ -1813,10 +1999,10 @@
       <c r="K38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="2"/>
@@ -1830,10 +2016,10 @@
       <c r="K39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2"/>
@@ -1847,10 +2033,10 @@
       <c r="K40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="2"/>
@@ -1864,10 +2050,10 @@
       <c r="K41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="2"/>
@@ -1901,7 +2087,7 @@
         <v>79</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1926,9 +2112,15 @@
       <c r="K45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="3"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1939,9 +2131,15 @@
       <c r="K46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="3"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1952,26 +2150,38 @@
       <c r="K47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="A48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="82">
   <si>
     <t>Asset</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Smartshares NZ Top 50</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -281,12 +278,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -310,6 +301,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -340,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -348,25 +345,22 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -375,26 +369,23 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,12 +695,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="57.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -720,7 +711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
@@ -731,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -742,7 +733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -753,7 +744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
@@ -764,7 +755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -775,7 +766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
@@ -786,7 +777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="12" t="s">
         <v>37</v>
       </c>
@@ -797,290 +788,290 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>82</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>82</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>82</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>82</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>82</v>
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>82</v>
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>82</v>
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>82</v>
+        <v>53</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>82</v>
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>82</v>
+        <v>58</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>82</v>
+        <v>60</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>82</v>
+        <v>64</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>82</v>
+        <v>66</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>82</v>
+        <v>68</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>82</v>
+        <v>70</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
       <c r="A30" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="37.5">
       <c r="A31" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1099,17 +1090,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1128,10 +1119,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1161,7 +1152,7 @@
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1186,7 +1177,7 @@
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1211,7 +1202,7 @@
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1236,7 +1227,7 @@
       <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1261,7 +1252,7 @@
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1286,7 +1277,7 @@
       <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1311,7 +1302,7 @@
       <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1336,7 +1327,7 @@
       <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1361,7 +1352,7 @@
       <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1386,7 +1377,7 @@
       <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1411,7 +1402,7 @@
       <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1436,7 +1427,7 @@
       <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1461,7 +1452,7 @@
       <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1486,7 +1477,7 @@
       <c r="E15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1511,7 +1502,7 @@
       <c r="E16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -1536,7 +1527,7 @@
       <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -1561,7 +1552,7 @@
       <c r="E18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -1586,7 +1577,7 @@
       <c r="E19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -1611,7 +1602,7 @@
       <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -1636,7 +1627,7 @@
       <c r="E21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -1661,7 +1652,7 @@
       <c r="E22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -1736,7 +1727,7 @@
       <c r="E25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -1761,7 +1752,7 @@
       <c r="E26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -1786,7 +1777,7 @@
       <c r="E27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -1809,8 +1800,8 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1828,8 +1819,8 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1839,7 +1830,7 @@
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1847,8 +1838,8 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1858,7 +1849,7 @@
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1866,8 +1857,8 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1885,8 +1876,8 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1904,8 +1895,8 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1923,164 +1914,164 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3"/>
+      <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2091,21 +2082,21 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="3"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2123,8 +2114,8 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2142,8 +2133,8 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -2161,8 +2152,8 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="9"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="8"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -2180,8 +2171,8 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="9"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="83">
   <si>
     <t>Asset</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Smartshares NZ Top 50</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -337,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -378,10 +381,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -695,9 +701,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="11" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -790,288 +796,288 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>82</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>82</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>82</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>82</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>82</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>82</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>82</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
       <c r="A30" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="37.5">
       <c r="A31" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="82">
   <si>
     <t>Asset</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Smartshares NZ Top 50</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -340,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -348,11 +345,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -378,16 +372,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -701,383 +692,383 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="57.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>82</v>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>82</v>
+      <c r="A24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>82</v>
+      <c r="A25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>82</v>
+      <c r="A26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>82</v>
+      <c r="A27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>82</v>
+      <c r="A28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>82</v>
+      <c r="A29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
-      <c r="A30" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>82</v>
+      <c r="A30" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="37.5">
-      <c r="A31" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>82</v>
+      <c r="A31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>82</v>
+      <c r="A32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>82</v>
+      <c r="A33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>82</v>
+      <c r="A34" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1096,17 +1087,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1161,7 +1152,7 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="2"/>
@@ -1186,7 +1177,7 @@
       <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="2"/>
@@ -1211,7 +1202,7 @@
       <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="2"/>
@@ -1236,7 +1227,7 @@
       <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="2"/>
@@ -1261,7 +1252,7 @@
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="2"/>
@@ -1286,7 +1277,7 @@
       <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="2"/>
@@ -1311,7 +1302,7 @@
       <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="2"/>
@@ -1336,7 +1327,7 @@
       <c r="F9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="2"/>
@@ -1361,7 +1352,7 @@
       <c r="F10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="2"/>
@@ -1386,7 +1377,7 @@
       <c r="F11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="2"/>
@@ -1411,7 +1402,7 @@
       <c r="F12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="2"/>
@@ -1436,7 +1427,7 @@
       <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="2"/>
@@ -1461,7 +1452,7 @@
       <c r="F14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H14" s="2"/>
@@ -1486,7 +1477,7 @@
       <c r="F15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="2"/>
@@ -1511,7 +1502,7 @@
       <c r="F16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H16" s="2"/>
@@ -1536,7 +1527,7 @@
       <c r="F17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H17" s="2"/>
@@ -1561,7 +1552,7 @@
       <c r="F18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H18" s="2"/>
@@ -1586,7 +1577,7 @@
       <c r="F19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H19" s="2"/>
@@ -1611,7 +1602,7 @@
       <c r="F20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="2"/>
@@ -1636,7 +1627,7 @@
       <c r="F21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H21" s="2"/>
@@ -1661,7 +1652,7 @@
       <c r="F22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H22" s="2"/>
@@ -1683,10 +1674,10 @@
       <c r="E23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H23" s="2"/>
@@ -1708,10 +1699,10 @@
       <c r="E24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H24" s="2"/>
@@ -1736,7 +1727,7 @@
       <c r="F25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="2"/>
@@ -1761,7 +1752,7 @@
       <c r="F26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="2"/>
@@ -1786,7 +1777,7 @@
       <c r="F27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H27" s="2"/>
@@ -1836,7 +1827,7 @@
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1855,7 +1846,7 @@
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1928,10 +1919,10 @@
       <c r="K34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="2"/>
@@ -1945,10 +1936,10 @@
       <c r="K35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="2"/>
@@ -1962,10 +1953,10 @@
       <c r="K36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="2"/>
@@ -1979,10 +1970,10 @@
       <c r="K37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="2"/>
@@ -1996,10 +1987,10 @@
       <c r="K38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="2"/>
@@ -2013,10 +2004,10 @@
       <c r="K39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2"/>
@@ -2030,10 +2021,10 @@
       <c r="K40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="2"/>
@@ -2047,10 +2038,10 @@
       <c r="K41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="2"/>
@@ -2109,7 +2100,7 @@
       <c r="K45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2128,7 +2119,7 @@
       <c r="K46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2147,7 +2138,7 @@
       <c r="K47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2159,14 +2150,14 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="8"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2178,7 +2169,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="8"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="84">
   <si>
     <t>Asset</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>iShares S&amp;P GSCI Commodity-Indexed Trust ETF</t>
+  </si>
+  <si>
+    <t>qqq</t>
   </si>
   <si>
     <t>BNO</t>
@@ -264,6 +267,9 @@
   </si>
   <si>
     <t>Smartshares NZ Top 50</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -271,7 +277,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,18 +295,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00a67d"/>
-      <name val="Courier New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
       <family val="2"/>
     </font>
     <font>
@@ -337,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -350,12 +344,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -378,7 +366,16 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -686,389 +683,509 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="57.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
+      <c r="A30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="37.5">
+      <c r="A31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12" t="s">
+      <c r="C38" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="12" t="s">
+      <c r="C39" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
-      <c r="A30" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="37.5">
-      <c r="A31" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>55</v>
+      <c r="C40" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="56.25">
+      <c r="A41" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="37.5">
+      <c r="A42" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1081,23 +1198,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1337,7 +1454,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -1347,10 +1464,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>20</v>
@@ -1372,10 +1489,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
@@ -1397,13 +1514,13 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1422,13 +1539,13 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1447,13 +1564,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1472,13 +1589,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1497,13 +1614,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1512,23 +1629,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1537,23 +1654,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1562,23 +1679,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1587,23 +1704,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1612,23 +1729,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1637,23 +1754,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1662,23 +1779,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="56.25">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1687,23 +1804,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="37.5">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1712,20 +1829,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>20</v>
@@ -1737,20 +1854,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>20</v>
@@ -1762,23 +1879,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1787,13 +1904,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1806,13 +1923,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1825,13 +1942,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1844,13 +1961,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="37.5">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1863,10 +1980,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -1882,10 +1999,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>20</v>
@@ -1901,13 +2018,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1919,13 +2036,15 @@
       <c r="K34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="2"/>
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
@@ -1936,12 +2055,8 @@
       <c r="K35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1953,13 +2068,15 @@
       <c r="K36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="2"/>
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
@@ -1970,13 +2087,15 @@
       <c r="K37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="2"/>
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
@@ -1986,195 +2105,44 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="2"/>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="2"/>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="5"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="85">
   <si>
     <t>Asset</t>
   </si>
@@ -267,6 +267,10 @@
   </si>
   <si>
     <t>Smartshares NZ Top 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares US Healthcare ETF
+</t>
   </si>
   <si>
     <t/>
@@ -372,10 +376,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -683,7 +687,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -694,37 +698,37 @@
     <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="10" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -738,254 +742,254 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="10" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="10" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="10" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="10" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="10" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="10" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="10" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="10" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="10" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>56</v>
@@ -993,54 +997,54 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="10" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="37.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="10" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>20</v>
@@ -1048,21 +1052,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="10" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="37.5">
       <c r="A34" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>56</v>
@@ -1070,122 +1074,111 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="10" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="10" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="56.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="56.25">
+      <c r="A40" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="37.5">
       <c r="A41" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="37.5">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -335,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -361,9 +361,6 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -376,10 +373,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -693,491 +690,491 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="37.5">
-      <c r="A34" s="10" t="s">
+      <c r="C33" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21">
+      <c r="A34" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="56.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="37.5">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>84</v>
       </c>
     </row>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="84">
   <si>
     <t>Asset</t>
   </si>
@@ -271,9 +271,6 @@
   <si>
     <t xml:space="preserve">iShares US Healthcare ETF
 </t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -281,7 +278,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,12 +289,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -335,16 +326,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -356,28 +347,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -684,499 +666,464 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="57.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21">
+      <c r="A33" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21">
-      <c r="A34" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="56.25">
-      <c r="A40" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="37.5">
-      <c r="A41" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>84</v>
-      </c>
+      <c r="C38" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="56.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="37.5">
+      <c r="A40" s="10"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,15 +1143,15 @@
   <cols>
     <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1214,31 +1161,31 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1249,23 +1196,23 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
@@ -1274,23 +1221,23 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
@@ -1299,23 +1246,23 @@
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
@@ -1324,23 +1271,23 @@
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
@@ -1349,23 +1296,23 @@
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
@@ -1374,23 +1321,23 @@
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
@@ -1399,23 +1346,23 @@
       <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
@@ -1424,23 +1371,23 @@
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
@@ -1449,23 +1396,23 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
@@ -1474,23 +1421,23 @@
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
@@ -1499,23 +1446,23 @@
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
@@ -1524,23 +1471,23 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
@@ -1549,23 +1496,23 @@
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
@@ -1574,23 +1521,23 @@
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
@@ -1599,23 +1546,23 @@
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
@@ -1624,23 +1571,23 @@
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
@@ -1649,23 +1596,23 @@
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
@@ -1674,23 +1621,23 @@
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
@@ -1699,23 +1646,23 @@
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
@@ -1724,23 +1671,23 @@
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>70</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
@@ -1749,23 +1696,23 @@
       <c r="B22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>72</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="56.25">
       <c r="A23" s="1" t="s">
@@ -1774,11 +1721,11 @@
       <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -1787,10 +1734,10 @@
       <c r="G23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="37.5">
       <c r="A24" s="1" t="s">
@@ -1799,11 +1746,11 @@
       <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -1812,10 +1759,10 @@
       <c r="G24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
@@ -1824,23 +1771,23 @@
       <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
@@ -1849,23 +1796,23 @@
       <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>80</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
@@ -1874,23 +1821,23 @@
       <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
@@ -1899,17 +1846,17 @@
       <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
@@ -1918,17 +1865,17 @@
       <c r="B29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
       <c r="A30" s="1" t="s">
@@ -1937,17 +1884,17 @@
       <c r="B30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="37.5">
       <c r="A31" s="1" t="s">
@@ -1956,17 +1903,17 @@
       <c r="B31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
@@ -1975,17 +1922,17 @@
       <c r="B32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
@@ -1994,17 +1941,17 @@
       <c r="B33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
@@ -2013,17 +1960,17 @@
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
@@ -2032,30 +1979,30 @@
       <c r="B35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
@@ -2064,17 +2011,17 @@
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
@@ -2083,17 +2030,17 @@
       <c r="B38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1" t="s">
@@ -2102,17 +2049,17 @@
       <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1" t="s">
@@ -2121,17 +2068,17 @@
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="84">
   <si>
     <t>Asset</t>
   </si>
@@ -326,13 +326,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -355,11 +355,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -666,210 +663,210 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="57.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>62</v>
+        <v>81</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>82</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>58</v>
+        <v>73</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>56</v>
@@ -877,54 +874,54 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="10" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>56</v>
@@ -932,10 +929,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>13</v>
@@ -943,10 +940,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>32</v>
+        <v>79</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>20</v>
@@ -954,65 +951,65 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21">
       <c r="A29" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>80</v>
+        <v>54</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>24</v>
+        <v>77</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>20</v>
@@ -1020,110 +1017,66 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="10" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>20</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="56.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="37.5">
+      <c r="A36" s="10"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="56.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="10"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="10"/>
       <c r="B39" s="4"/>
       <c r="C39" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="10"/>
       <c r="B40" s="4"/>
       <c r="C40" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="84">
   <si>
     <t>Asset</t>
   </si>
@@ -663,7 +663,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -720,10 +720,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
@@ -731,21 +731,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="10" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>56</v>
@@ -753,10 +753,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>56</v>
@@ -764,87 +764,87 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="10" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="10" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="10" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="10" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="10" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="10" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>56</v>
@@ -852,10 +852,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="10" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>56</v>
@@ -863,21 +863,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="10" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>13</v>
@@ -885,57 +885,57 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="10" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="10" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="10" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="10" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -951,10 +951,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="10" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>20</v>
@@ -971,23 +971,23 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21">
       <c r="A28" s="10" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="10" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>56</v>
@@ -995,21 +995,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>20</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="10" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>20</v>
@@ -1028,55 +1028,44 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="10" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="56.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="56.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="37.5">
       <c r="A35" s="10"/>
       <c r="B35" s="4"/>
       <c r="C35" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="10"/>
       <c r="B36" s="4"/>
       <c r="C36" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="10"/>
       <c r="B37" s="4"/>
       <c r="C37" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="10"/>
       <c r="B38" s="4"/>
       <c r="C38" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="10"/>
       <c r="B39" s="4"/>
       <c r="C39" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="10"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="91">
   <si>
     <t>Asset</t>
   </si>
@@ -269,8 +269,30 @@
     <t>Smartshares NZ Top 50</t>
   </si>
   <si>
+    <t xml:space="preserve">Bonds </t>
+  </si>
+  <si>
+    <t>Energies</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
     <t xml:space="preserve">iShares US Healthcare ETF
 </t>
+  </si>
+  <si>
+    <t>Metals
+Metals</t>
+  </si>
+  <si>
+    <t>Housing</t>
   </si>
 </sst>
 </file>
@@ -326,19 +348,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -347,16 +366,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -663,409 +682,387 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="57.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
+      <c r="C2" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
+      <c r="C3" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>20</v>
+      <c r="C4" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
+      <c r="C5" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
+      <c r="C9" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>13</v>
+      <c r="C10" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
+      <c r="C11" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>13</v>
+      <c r="C12" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>39</v>
+      <c r="C14" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>13</v>
+      <c r="C19" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="10" t="s">
+      <c r="C20" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10" t="s">
+      <c r="C21" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>13</v>
+      <c r="C23" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>20</v>
+      <c r="C24" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>20</v>
+      <c r="C25" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
+      <c r="A26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21">
-      <c r="A28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>56</v>
+      <c r="C27" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21">
+      <c r="A29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>20</v>
+      <c r="A30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="56.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="37.5">
-      <c r="A35" s="10"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="10"/>
+      <c r="C31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="56.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="37.5">
+      <c r="A33" s="8"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="8"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="10"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="10"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="10"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="10"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="10"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1083,17 +1080,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1112,7 +1109,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1145,7 +1142,7 @@
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1170,7 +1167,7 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1195,7 +1192,7 @@
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1220,7 +1217,7 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1245,7 +1242,7 @@
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1270,7 +1267,7 @@
       <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1295,7 +1292,7 @@
       <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1320,7 +1317,7 @@
       <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1345,7 +1342,7 @@
       <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1370,7 +1367,7 @@
       <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1395,7 +1392,7 @@
       <c r="E12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1420,7 +1417,7 @@
       <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1445,7 +1442,7 @@
       <c r="E14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1470,7 +1467,7 @@
       <c r="E15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1495,7 +1492,7 @@
       <c r="E16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1520,7 +1517,7 @@
       <c r="E17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1545,7 +1542,7 @@
       <c r="E18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1570,7 +1567,7 @@
       <c r="E19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1595,7 +1592,7 @@
       <c r="E20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1620,7 +1617,7 @@
       <c r="E21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1645,7 +1642,7 @@
       <c r="E22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -1670,7 +1667,7 @@
       <c r="E23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -1695,7 +1692,7 @@
       <c r="E24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -1720,7 +1717,7 @@
       <c r="E25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -1745,7 +1742,7 @@
       <c r="E26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1770,7 +1767,7 @@
       <c r="E27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -1793,7 +1790,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="1"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1812,7 +1809,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="1"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1823,7 +1820,7 @@
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1831,7 +1828,7 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="1"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1842,7 +1839,7 @@
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1850,7 +1847,7 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="1"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1869,7 +1866,7 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="1"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1888,7 +1885,7 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="1"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1907,7 +1904,7 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="1"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -1926,7 +1923,7 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="1"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -1939,7 +1936,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="1"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1958,7 +1955,7 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="1"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1977,7 +1974,7 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="1"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1996,8 +1993,8 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -2015,8 +2012,8 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -1001,7 +1001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="36.75">
       <c r="A29" s="8" t="s">
         <v>35</v>
       </c>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>Asset</t>
   </si>
@@ -269,7 +269,7 @@
     <t>Smartshares NZ Top 50</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonds </t>
+    <t>Bonds</t>
   </si>
   <si>
     <t>Energies</t>
@@ -290,6 +290,9 @@
   <si>
     <t>Metals
 Metals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonds </t>
   </si>
   <si>
     <t>Housing</t>
@@ -943,7 +946,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -976,7 +979,7 @@
         <v>76</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="91">
   <si>
     <t>Asset</t>
   </si>
@@ -286,10 +286,6 @@
   <si>
     <t xml:space="preserve">iShares US Healthcare ETF
 </t>
-  </si>
-  <si>
-    <t>Metals
-Metals</t>
   </si>
   <si>
     <t xml:space="preserve">Bonds </t>
@@ -303,7 +299,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,12 +310,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -351,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -376,9 +366,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -691,9 +678,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -916,7 +903,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
@@ -924,7 +911,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
@@ -946,7 +933,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -979,7 +966,7 @@
         <v>76</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
@@ -1004,14 +991,14 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="36.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="26.25">
       <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="2" t="s">
         <v>86</v>
       </c>
     </row>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>Asset</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Metals</t>
+  </si>
+  <si>
+    <t>ITA</t>
   </si>
   <si>
     <t>Defense</t>
@@ -828,13 +831,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="8" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
@@ -864,7 +867,7 @@
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>56</v>
@@ -903,7 +906,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
@@ -933,7 +936,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -966,7 +969,7 @@
         <v>76</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
   <si>
     <t>Asset</t>
   </si>
@@ -672,7 +672,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -762,87 +762,87 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="8" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="8" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="8" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="8" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>56</v>
@@ -850,10 +850,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="8" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>56</v>
@@ -861,21 +861,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="8" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>83</v>
@@ -883,176 +883,165 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="8" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="8" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+        <v>86</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="8" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="8" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="8" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="8" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
-      <c r="A26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="26.25">
-      <c r="A29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="8" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="56.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="8"/>
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="8"/>
       <c r="B34" s="2"/>
       <c r="C34" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="8"/>
       <c r="B35" s="2"/>
       <c r="C35" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
       <c r="C36" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="8"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="90">
   <si>
     <t>Asset</t>
   </si>
@@ -286,9 +286,6 @@
   <si>
     <t xml:space="preserve">iShares US Healthcare ETF
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonds </t>
   </si>
   <si>
     <t>Housing</t>
@@ -922,7 +919,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
@@ -955,7 +952,7 @@
         <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -669,7 +669,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -913,21 +913,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="8" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="8" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>84</v>
@@ -935,79 +935,79 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="8" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="8" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="8" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="8" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>85</v>
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="8" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="8" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
@@ -1025,20 +1025,15 @@
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="8"/>
       <c r="B34" s="2"/>
       <c r="C34" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="8"/>
       <c r="B35" s="2"/>
       <c r="C35" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="8"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
   <si>
     <t>Asset</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Housing</t>
+  </si>
+  <si>
+    <t>Bond</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1010,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>Asset</t>
   </si>
@@ -281,6 +281,9 @@
     <t>Metals</t>
   </si>
   <si>
+    <t>ITA</t>
+  </si>
+  <si>
     <t>Defense</t>
   </si>
   <si>
@@ -288,10 +291,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Bonds </t>
+  </si>
+  <si>
     <t>Housing</t>
-  </si>
-  <si>
-    <t>Bond</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -762,87 +765,87 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="8" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="8" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>56</v>
@@ -850,10 +853,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>56</v>
@@ -861,21 +864,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="8" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>83</v>
@@ -883,147 +886,153 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="8" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="8" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="8" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
+      <c r="A26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="8" t="s">
+      <c r="C26" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="8" t="s">
+      <c r="C27" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="26.25">
+      <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="C31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="56.25">
       <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="37.5">
       <c r="A33" s="8"/>
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
@@ -1037,6 +1046,16 @@
       <c r="A35" s="8"/>
       <c r="B35" s="2"/>
       <c r="C35" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="8"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="8"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="91">
   <si>
     <t>Asset</t>
   </si>
@@ -289,9 +289,6 @@
   <si>
     <t xml:space="preserve">iShares US Healthcare ETF
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonds </t>
   </si>
   <si>
     <t>Housing</t>
@@ -936,7 +933,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -969,7 +966,7 @@
         <v>76</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
   <si>
     <t>Asset</t>
   </si>
@@ -269,16 +269,16 @@
     <t>Smartshares NZ Top 50</t>
   </si>
   <si>
+    <t>Energies</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
     <t>Bonds</t>
-  </si>
-  <si>
-    <t>Energies</t>
-  </si>
-  <si>
-    <t>Commodities</t>
-  </si>
-  <si>
-    <t>Metals</t>
   </si>
   <si>
     <t>ITA</t>
@@ -672,7 +672,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -696,10 +696,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="8" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>83</v>
@@ -707,10 +707,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="8" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>84</v>
@@ -718,10 +718,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>85</v>
@@ -729,21 +729,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>56</v>
@@ -751,10 +751,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>56</v>
@@ -762,21 +762,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="8" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>86</v>
@@ -784,65 +784,65 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="8" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="8" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="8" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>56</v>
@@ -850,10 +850,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="8" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>56</v>
@@ -861,198 +861,187 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="8" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="8" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="8" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="8" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="8" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="8" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="8" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
-      <c r="A26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="8" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="26.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="8" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="56.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="56.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="37.5">
       <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="8"/>
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="8"/>
       <c r="B34" s="2"/>
       <c r="C34" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="8"/>
       <c r="B35" s="2"/>
       <c r="C35" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
       <c r="C36" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="8"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>Asset</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Metals</t>
+  </si>
+  <si>
+    <t>FNZ</t>
   </si>
   <si>
     <t>Bonds</t>
@@ -751,7 +754,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>82</v>
@@ -779,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -801,7 +804,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
@@ -817,13 +820,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -853,7 +856,7 @@
         <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>56</v>
@@ -867,7 +870,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -878,7 +881,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -922,7 +925,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
@@ -955,7 +958,7 @@
         <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="91">
   <si>
     <t>Asset</t>
   </si>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>Metals</t>
-  </si>
-  <si>
-    <t>FNZ</t>
   </si>
   <si>
     <t>Bonds</t>
@@ -344,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -368,6 +365,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -681,9 +681,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -754,7 +754,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>82</v>
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -804,7 +804,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
@@ -820,13 +820,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -856,7 +856,7 @@
         <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>56</v>
@@ -870,7 +870,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -881,7 +881,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -925,7 +925,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
@@ -958,7 +958,7 @@
         <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
@@ -1017,9 +1017,15 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="56.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="37.5">
       <c r="A32" s="8"/>

--- a/RiskParity_Holdings_Constraints.xlsx
+++ b/RiskParity_Holdings_Constraints.xlsx
@@ -341,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -365,9 +365,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -681,9 +678,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="57.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -994,7 +991,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="8" t="s">
         <v>47</v>
       </c>
@@ -1005,7 +1002,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="8" t="s">
         <v>69</v>
       </c>
@@ -1016,23 +1013,23 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="56.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="37.5">
+      <c r="C31" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="8"/>
       <c r="B33" s="2"/>
       <c r="C33" s="8"/>
